--- a/doc/Balance/Перечень точек учета АСУ ГАЗ_под_схему.xlsx
+++ b/doc/Balance/Перечень точек учета АСУ ГАЗ_под_схему.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2013\Projects\Work\dpa\doc\Balance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7C19F09-E463-4C9F-81F5-045E30D8095F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CDF34A-1A45-496F-9646-881ABB7ECCF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПГ" sheetId="1" r:id="rId1"/>
     <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ПГ!$A$1:$U$218</definedName>
@@ -295,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="425">
   <si>
     <t>Наименование  узла измерения</t>
   </si>
@@ -2194,6 +2195,9 @@
   </si>
   <si>
     <t>Внешние газовые сети  ДП-9 ( 3 – нитка)</t>
+  </si>
+  <si>
+    <t>working</t>
   </si>
 </sst>
 </file>
@@ -3062,7 +3066,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="369">
+  <cellXfs count="371">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4154,6 +4158,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -15926,43 +15934,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9305113-344D-4205-A8D4-EC2A36AAA730}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="A3:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="369" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="369" t="s">
         <v>409</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="369" t="s">
         <v>410</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="369" t="s">
         <v>411</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="369" t="s">
         <v>412</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="369" t="s">
+        <v>424</v>
+      </c>
+      <c r="G1" s="369" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
@@ -15972,11 +15987,17 @@
       <c r="D2" s="368" t="s">
         <v>423</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
       <c r="B3" s="4">
         <v>51</v>
       </c>
@@ -15989,11 +16010,20 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
       <c r="B4" s="4">
         <v>51</v>
       </c>
@@ -16006,11 +16036,20 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
       <c r="B5" s="4">
         <v>51</v>
       </c>
@@ -16023,11 +16062,20 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
       <c r="B6" s="4">
         <v>8</v>
       </c>
@@ -16040,11 +16088,20 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
       <c r="B7" s="4">
         <v>8</v>
       </c>
@@ -16057,11 +16114,20 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
       <c r="B8" s="4">
         <v>8</v>
       </c>
@@ -16074,11 +16140,20 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
       <c r="B9" s="4">
         <v>8</v>
       </c>
@@ -16091,11 +16166,20 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
       <c r="B10" s="4">
         <v>4</v>
       </c>
@@ -16108,11 +16192,20 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
       <c r="B11" s="4">
         <v>5</v>
       </c>
@@ -16125,11 +16218,20 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
       <c r="B12" s="4">
         <v>6</v>
       </c>
@@ -16142,8 +16244,157 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
         <v>278</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3E6175-4272-4F1B-B3F4-BCDF3D213085}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="A2:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="370">
+        <v>44168</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="370">
+        <v>44168</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>203.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="370">
+        <v>44168</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="370">
+        <v>44168</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="370">
+        <v>44168</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>130.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="370">
+        <v>44168</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="370">
+        <v>44168</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="370">
+        <v>44168</v>
+      </c>
+      <c r="C8" s="4">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="370">
+        <v>44168</v>
+      </c>
+      <c r="C9" s="4">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>59.805</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="370">
+        <v>44168</v>
+      </c>
+      <c r="C10" s="4">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>58.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="370">
+        <v>44168</v>
+      </c>
+      <c r="C11" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
